--- a/data/trans_camb/P32-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P32-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>4.492699529950704</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4.61495518777046</v>
+        <v>4.614955187770462</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.504097562958648</v>
@@ -655,7 +655,7 @@
         <v>3.735969444234053</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.739074550476084</v>
+        <v>2.739074550476085</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>3.550891398999741</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.06341457075181</v>
+        <v>1.249480121464048</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.516524291707483</v>
+        <v>1.523787224071947</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.747200290921195</v>
+        <v>1.740202368429055</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.6977877758174055</v>
+        <v>-0.7428215464078628</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4620888010231566</v>
+        <v>0.3891597100750146</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.09077597205614218</v>
+        <v>0.1071620297406129</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.316239168339068</v>
+        <v>1.13755255889165</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.860957437243478</v>
+        <v>1.826398829549616</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.732485741766527</v>
+        <v>1.494376781978249</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.923907609798038</v>
+        <v>7.797905191561412</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.052661469020418</v>
+        <v>8.19381325711654</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.173282456746422</v>
+        <v>8.236719361805346</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.666159429151347</v>
+        <v>8.687143451204955</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.63351751975077</v>
+        <v>8.268664717377122</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.124712008336505</v>
+        <v>6.107804830667747</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.538845743722034</v>
+        <v>6.596832113714206</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.144578163865753</v>
+        <v>6.90147494494579</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.386373767781088</v>
+        <v>6.236208142311627</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>2.945561939382969</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3.025716779506909</v>
+        <v>3.025716779506911</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>3.244568628887953</v>
@@ -760,7 +760,7 @@
         <v>4.840709657863256</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>3.549029195236205</v>
+        <v>3.549029195236206</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>2.743418451135033</v>
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.05206171308367247</v>
+        <v>0.1076939743045436</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1449727169037003</v>
+        <v>0.3032955092018617</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4137383430248773</v>
+        <v>0.38082076426754</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>0.1446373664518996</v>
+        <v>0.3412669736269093</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4345791261173849</v>
+        <v>0.6682773804772054</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3589546673359051</v>
+        <v>0.3870291931828817</v>
       </c>
     </row>
     <row r="9">
@@ -809,25 +809,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>13.67338411875714</v>
+        <v>15.26842681742705</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>13.86459991583953</v>
+        <v>15.3717429386346</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>14.27443346487723</v>
+        <v>15.12938946634309</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>9.230490831155528</v>
+        <v>11.41512317116477</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>10.21976673594484</v>
+        <v>13.33302105548498</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>9.773108377362323</v>
+        <v>12.43769893647284</v>
       </c>
     </row>
     <row r="10">
@@ -866,7 +866,7 @@
         <v>2.73011505442882</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.556179643994975</v>
+        <v>2.556179643994974</v>
       </c>
     </row>
     <row r="11">
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4903331601877432</v>
+        <v>0.6027431579711662</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.1631291217398093</v>
+        <v>0.0130504645727344</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4142497454003572</v>
+        <v>-0.6313958561904996</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9567525237019194</v>
+        <v>-0.6081464492631843</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.6619613633499216</v>
+        <v>-0.3892466361086374</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.02521913443861823</v>
+        <v>0.04187254162441995</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9169779646129038</v>
+        <v>0.824516546400212</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5775927729837291</v>
+        <v>0.5905199225950087</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4452560061422299</v>
+        <v>0.2960196225913714</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.746362828063237</v>
+        <v>8.346105826968111</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.564290596144218</v>
+        <v>6.389739907523581</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.706617714200909</v>
+        <v>5.732997978791066</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.946211788265952</v>
+        <v>7.284013163200129</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.980789853784886</v>
+        <v>6.199516260295663</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.877207459234605</v>
+        <v>7.19624740563922</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.869654763484593</v>
+        <v>6.349259668229205</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.115693435743082</v>
+        <v>5.287104024763741</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.873376658891859</v>
+        <v>5.010176659162877</v>
       </c>
     </row>
     <row r="13">
@@ -971,7 +971,7 @@
         <v>1.718498661715837</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.609013250260131</v>
+        <v>1.60901325026013</v>
       </c>
     </row>
     <row r="14">
@@ -982,29 +982,27 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1472887406584459</v>
+        <v>-0.1704868198497362</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2948456327741343</v>
+        <v>-0.1965173913361287</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3174379977009339</v>
+        <v>-0.4204166431481869</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
-      <c r="G14" s="6" t="n">
-        <v>-0.7143841298967625</v>
-      </c>
+      <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.4244551483828846</v>
+        <v>-0.451086965131589</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1142067711599837</v>
+        <v>0.03252960402025993</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03552368099221305</v>
+        <v>0.063964820736779</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.02338018966592503</v>
+        <v>-0.06780111313637466</v>
       </c>
     </row>
     <row r="15">
@@ -1015,25 +1013,25 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13.35580409583781</v>
+        <v>13.29398999785244</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10.73832341900169</v>
+        <v>10.34747843536745</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9.971367811474721</v>
+        <v>9.235127489641656</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>8.608700232511238</v>
+        <v>7.524900990286794</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6.196662156428451</v>
+        <v>6.934727488848949</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5.583159731830027</v>
+        <v>6.67119876703377</v>
       </c>
     </row>
     <row r="16">
@@ -1063,7 +1061,7 @@
         <v>3.850126551969313</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.1177978384398502</v>
+        <v>-0.1177978384398506</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.080229372268985</v>
@@ -1083,31 +1081,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8856186047238925</v>
+        <v>-0.4400302165264647</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.382072312477821</v>
+        <v>-2.638433487616061</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2226624327146797</v>
+        <v>0.3273112343857581</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.75420581984656</v>
+        <v>-5.494211379191174</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.864915982451676</v>
+        <v>-1.886060604969664</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.643747348041032</v>
+        <v>-5.67369715362387</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.5828669721135918</v>
+        <v>-0.7330097427941977</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.618476386988103</v>
+        <v>-1.829355281153614</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.2880525240876295</v>
+        <v>-0.2187155791576971</v>
       </c>
     </row>
     <row r="18">
@@ -1118,31 +1116,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.63999059389582</v>
+        <v>5.64515182442188</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.31567101256696</v>
+        <v>3.110648413463063</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.373331723608935</v>
+        <v>8.232546664138155</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.879356355596451</v>
+        <v>4.755910417683505</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>13.19637980427437</v>
+        <v>11.5897627441289</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.532085385348438</v>
+        <v>3.605858515703333</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.088999731823956</v>
+        <v>4.862246046738896</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.688204123545249</v>
+        <v>3.431760037619765</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.972328047810638</v>
+        <v>6.990672825618599</v>
       </c>
     </row>
     <row r="19">
@@ -1168,7 +1166,7 @@
         <v>2.082428030786923</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.06371362536324458</v>
+        <v>-0.06371362536324476</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.6797159590366891</v>
@@ -1188,25 +1186,25 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2122910515209748</v>
+        <v>-0.1657471850827945</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5830299460327677</v>
+        <v>-0.5977686685664592</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.01746209242895624</v>
+        <v>-0.03310612691906314</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.1702350678424792</v>
+        <v>-0.2134991570703765</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4027685048472163</v>
+        <v>-0.4517493818653714</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1288053793090278</v>
+        <v>-0.1523202164211227</v>
       </c>
     </row>
     <row r="21">
@@ -1217,25 +1215,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.788468904116728</v>
+        <v>2.72580663534496</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.729201318368276</v>
+        <v>1.551374236264705</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.92963664860048</v>
+        <v>3.808802622437991</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>2.561412482324976</v>
+        <v>2.621330551672945</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.015773708342708</v>
+        <v>2.009614624715643</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.244618573335964</v>
+        <v>3.587141718888401</v>
       </c>
     </row>
     <row r="22">
@@ -1285,31 +1283,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.902796302486987</v>
+        <v>1.97886609153911</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.07798974205433154</v>
+        <v>-0.1256970385827447</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2970517991555991</v>
+        <v>0.419241449282057</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.570289101981132</v>
+        <v>-2.761293888224513</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.836446553718469</v>
+        <v>-1.440925994698434</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.483571710741277</v>
+        <v>-1.490788802657679</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.040055385905155</v>
+        <v>1.032517942450458</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.2145432651758501</v>
+        <v>-0.06433545050141969</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2065832711031384</v>
+        <v>0.2193193159453403</v>
       </c>
     </row>
     <row r="24">
@@ -1320,31 +1318,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.998360197376957</v>
+        <v>6.968974171269261</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.441467136018496</v>
+        <v>4.29360240021403</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.512320840889012</v>
+        <v>5.61934396381165</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.104244748796106</v>
+        <v>2.052980777757815</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.235616226889507</v>
+        <v>3.132445101808671</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.502553655501539</v>
+        <v>4.835896259539298</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.072833554598034</v>
+        <v>5.058177707610983</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.426931333976865</v>
+        <v>3.391835414327014</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.497494889645787</v>
+        <v>4.786770696288734</v>
       </c>
     </row>
     <row r="25">
@@ -1390,29 +1388,27 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.396276436863327</v>
+        <v>0.4387449089872212</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02800880149670328</v>
+        <v>-0.06529041975874532</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.04660496526756153</v>
+        <v>0.06455391894391004</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>-0.815483135163394</v>
-      </c>
-      <c r="H26" s="6" t="n">
-        <v>-0.9745593839289498</v>
-      </c>
+        <v>-0.8947886404608071</v>
+      </c>
+      <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>0.2784758813445413</v>
+        <v>0.2338269479310921</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.09782173582986899</v>
+        <v>-0.03986922946754123</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.03831654487234407</v>
+        <v>0.04428524585724936</v>
       </c>
     </row>
     <row r="27">
@@ -1423,25 +1419,25 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.041292217668373</v>
+        <v>3.230456919981334</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.04111637113952</v>
+        <v>1.964877014927939</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.413815841981394</v>
+        <v>2.621359786769773</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>2.766085226229106</v>
+        <v>2.613793092836016</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.677035042979236</v>
+        <v>1.74905012449805</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.349976326492315</v>
+        <v>2.346236689542335</v>
       </c>
     </row>
     <row r="28">
@@ -1462,7 +1458,7 @@
         <v>2.79703763693117</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6.377599514432481</v>
+        <v>6.377599514432482</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-1.871605809755419</v>
@@ -1491,31 +1487,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.599815358685696</v>
+        <v>-1.170691426597697</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.045558364491124</v>
+        <v>-0.8288074240137469</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.232295430270608</v>
+        <v>2.215183620462406</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-7.012322855842982</v>
+        <v>-6.975192466156706</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-7.553639750218855</v>
+        <v>-8.51565711417191</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.858138608558565</v>
+        <v>-5.61894514709986</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.058225333761918</v>
+        <v>-2.486439727931358</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.342674008912776</v>
+        <v>-2.344995824767977</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.3920011995999168</v>
+        <v>0.3641880108584375</v>
       </c>
     </row>
     <row r="30">
@@ -1526,31 +1522,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.348163021414551</v>
+        <v>6.096875576641525</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.328593583473567</v>
+        <v>6.237618836202433</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11.33897891498847</v>
+        <v>11.30408145004561</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.875431007442839</v>
+        <v>1.42666538137705</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.0167616250372515</v>
+        <v>-0.3350594907509806</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.667304532249668</v>
+        <v>2.70550887056371</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.309570882685625</v>
+        <v>3.075981766619457</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.916387796364757</v>
+        <v>3.346500222290258</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.607476084463153</v>
+        <v>6.729770027512148</v>
       </c>
     </row>
     <row r="31">
@@ -1596,29 +1592,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4365365732128568</v>
+        <v>-0.4211739937221071</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3846240214143689</v>
+        <v>-0.3470477811407097</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1443102614627595</v>
+        <v>0.2815694141103046</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.9031712573340374</v>
-      </c>
-      <c r="G32" s="6" t="inlineStr"/>
+        <v>-0.9348035941343974</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H32" s="6" t="n">
-        <v>-0.7922616555283857</v>
+        <v>-0.7730334382818109</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.439740612216433</v>
+        <v>-0.494550285118144</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5085074731909967</v>
+        <v>-0.4846146822412271</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.02209423635914824</v>
+        <v>0.0051448493966574</v>
       </c>
     </row>
     <row r="33">
@@ -1629,29 +1627,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>4.084981900620479</v>
+        <v>6.84589403815233</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>5.004586511425041</v>
+        <v>6.318967086837367</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>8.720020084198147</v>
+        <v>9.795539919629968</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.642151122017901</v>
-      </c>
-      <c r="G33" s="6" t="inlineStr"/>
+        <v>1.230247226962767</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>0.5508449865381144</v>
+      </c>
       <c r="H33" s="6" t="n">
-        <v>1.835755201500442</v>
+        <v>1.933364447487957</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.845699016848301</v>
+        <v>1.86020711894687</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.570222217527685</v>
+        <v>2.149187656307844</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>3.697246585397192</v>
+        <v>3.95759845012024</v>
       </c>
     </row>
     <row r="34">
@@ -1672,7 +1672,7 @@
         <v>4.514607297784991</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>5.305616641365908</v>
+        <v>5.305616641365906</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>1.042933180496007</v>
@@ -1690,7 +1690,7 @@
         <v>4.109804387423848</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>2.981854612976114</v>
+        <v>2.981854612976115</v>
       </c>
     </row>
     <row r="35">
@@ -1701,31 +1701,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>4.503305678938095</v>
+        <v>4.422090967268131</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.6781283194043123</v>
+        <v>-1.040547396302232</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.851988622439623</v>
+        <v>-2.64254676559553</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.4312981646939878</v>
+        <v>-0.5302621911294223</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>1.444455978663277</v>
+        <v>1.551944756748196</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.8558554327947687</v>
+        <v>-0.8589966232133518</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.670580452861672</v>
+        <v>1.588292469977485</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.649125945576127</v>
+        <v>1.590266551084854</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.9333742038418602</v>
+        <v>-0.5693811794071922</v>
       </c>
     </row>
     <row r="36">
@@ -1736,31 +1736,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>18.57444132431728</v>
+        <v>17.91185513643453</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>10.68164679777755</v>
+        <v>10.59934226160484</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>18.46672745016435</v>
+        <v>20.53096859694228</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.811390266685786</v>
+        <v>2.910994170604044</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.120743643938916</v>
+        <v>7.07533364030449</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.127042265544441</v>
+        <v>7.705832759475574</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.373339052382136</v>
+        <v>6.90786766626602</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>6.953334269060139</v>
+        <v>6.923313538067247</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>9.239516701125373</v>
+        <v>10.27567674877665</v>
       </c>
     </row>
     <row r="37">
@@ -1777,7 +1777,7 @@
         <v>1.143815554977954</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>1.344224744890145</v>
+        <v>1.344224744890144</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>2.416537919058937</v>
@@ -1806,23 +1806,25 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.5119868607249524</v>
+        <v>0.5182538908028388</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1953785611545034</v>
-      </c>
-      <c r="E38" s="6" t="inlineStr"/>
+        <v>-0.2301900007482783</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="F38" s="6" t="inlineStr"/>
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="inlineStr"/>
       <c r="I38" s="6" t="n">
-        <v>0.3923490513749449</v>
+        <v>0.3963594624504468</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.3855631866228093</v>
+        <v>0.3393638607338268</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.585583559514478</v>
+        <v>-0.5528806064128959</v>
       </c>
     </row>
     <row r="39">
@@ -1833,23 +1835,25 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>10.88568261166448</v>
+        <v>9.71010684648698</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>6.094930354719327</v>
-      </c>
-      <c r="E39" s="6" t="inlineStr"/>
+        <v>5.906307868698092</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>12.83467460126142</v>
+      </c>
       <c r="F39" s="6" t="inlineStr"/>
       <c r="G39" s="6" t="inlineStr"/>
       <c r="H39" s="6" t="inlineStr"/>
       <c r="I39" s="6" t="n">
-        <v>7.808004235780105</v>
+        <v>7.021969800941958</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>7.338740273386638</v>
+        <v>6.842174495919164</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>9.067297810653262</v>
+        <v>9.146144587819085</v>
       </c>
     </row>
     <row r="40">
@@ -1899,31 +1903,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.49028070261848</v>
+        <v>2.551420375370639</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.202927322212583</v>
+        <v>1.163501341386324</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.357296287851205</v>
+        <v>2.264792940360494</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.5599352316970303</v>
+        <v>-0.5098426104019691</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.4722686863424333</v>
+        <v>0.4740198931496785</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.02364475816121692</v>
+        <v>0.1282023301327815</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>1.92262245239102</v>
+        <v>1.890695209009742</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.180074651532928</v>
+        <v>1.221752158453431</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.788892665621972</v>
+        <v>1.792600122788958</v>
       </c>
     </row>
     <row r="42">
@@ -1934,31 +1938,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.32667654428974</v>
+        <v>5.542566537416096</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.78906872494327</v>
+        <v>3.767103806327899</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.331232248592117</v>
+        <v>5.425762285666699</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.004973724479861</v>
+        <v>2.02793890832419</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.099297433966226</v>
+        <v>3.205825060274452</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.981742576336608</v>
+        <v>3.093412230760735</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.901605160240185</v>
+        <v>3.940161278682966</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.191477138279704</v>
+        <v>3.156406221145444</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.103726774237402</v>
+        <v>4.135044314401512</v>
       </c>
     </row>
     <row r="43">
@@ -1984,7 +1988,7 @@
         <v>1.20439628130059</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>1.022911405984214</v>
+        <v>1.022911405984215</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>1.222292059448272</v>
@@ -2004,31 +2008,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.7471975602661445</v>
+        <v>0.7276398212347998</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.3626308600899494</v>
+        <v>0.3524788267226961</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.6988645569283413</v>
+        <v>0.6552048202343738</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2965873308499798</v>
+        <v>-0.2944741089159748</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.179416238872784</v>
+        <v>0.2135157737283009</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.06472332194377341</v>
+        <v>-0.02898049467324071</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.6733051315890536</v>
+        <v>0.6719650268563815</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.389972433161649</v>
+        <v>0.4545193119267481</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.6121952490479281</v>
+        <v>0.6393001366001633</v>
       </c>
     </row>
     <row r="45">
@@ -2039,31 +2043,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.331381713232018</v>
+        <v>2.509262645727134</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.689024453888687</v>
+        <v>1.718270333914503</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.406115873695897</v>
+        <v>2.408282259061322</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>2.336250908940189</v>
+        <v>2.008835965957284</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>3.774152059508483</v>
+        <v>3.557410506772491</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>3.31056066093075</v>
+        <v>3.310512465982972</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>2.044463495640112</v>
+        <v>2.033893735851583</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.601687106633563</v>
+        <v>1.633955301188899</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.089440206872244</v>
+        <v>2.04661520803161</v>
       </c>
     </row>
     <row r="46">
